--- a/wenjian/8月份咨询组工作量明细统计.xlsx
+++ b/wenjian/8月份咨询组工作量明细统计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
@@ -345,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -368,6 +368,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -383,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,38 +431,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -776,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,65 +838,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="15"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="12">
+      <c r="B3" s="17"/>
+      <c r="C3" s="19">
         <v>21</v>
       </c>
       <c r="D3" s="4">
@@ -880,23 +921,23 @@
       <c r="J3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="16">
-        <f>SUM(I3:I26)</f>
+      <c r="K3" s="12">
+        <f>SUM(I3:I27)</f>
         <v>26.300000000000004</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="11">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="4">
         <v>42949</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E26" si="0">D4</f>
+        <f t="shared" ref="E4:E30" si="0">D4</f>
         <v>42949</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -914,13 +955,13 @@
       <c r="J4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="15"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4">
         <v>42950</v>
       </c>
@@ -943,13 +984,13 @@
       <c r="J5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4">
         <v>42951</v>
       </c>
@@ -972,13 +1013,13 @@
       <c r="J6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="4">
         <v>42952</v>
       </c>
@@ -1001,13 +1042,13 @@
       <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="15"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="4">
         <v>42954</v>
       </c>
@@ -1030,13 +1071,13 @@
       <c r="J8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4">
         <v>42955</v>
       </c>
@@ -1059,13 +1100,13 @@
       <c r="J9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4">
         <v>42956</v>
       </c>
@@ -1088,13 +1129,13 @@
       <c r="J10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="4">
         <v>42957</v>
       </c>
@@ -1117,13 +1158,13 @@
       <c r="J11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="15"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="4">
         <v>42958</v>
       </c>
@@ -1146,13 +1187,13 @@
       <c r="J12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="15"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="4">
         <v>42959</v>
       </c>
@@ -1175,13 +1216,13 @@
       <c r="J13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="15"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4">
         <v>42961</v>
       </c>
@@ -1204,13 +1245,13 @@
       <c r="J14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="4">
         <v>42962</v>
       </c>
@@ -1233,13 +1274,13 @@
       <c r="J15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="15"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4">
         <v>42963</v>
       </c>
@@ -1262,13 +1303,13 @@
       <c r="J16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="15"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4">
         <v>42964</v>
       </c>
@@ -1291,13 +1332,13 @@
       <c r="J17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="15"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="4">
         <v>42965</v>
       </c>
@@ -1320,243 +1361,301 @@
       <c r="J18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="4">
+        <v>42966</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>42966</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="4">
         <v>42968</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>42968</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="1:12" ht="54" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="4">
-        <v>42969</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>42969</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="4">
+        <v>42969</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>42969</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="4">
+      <c r="K21" s="12"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="4">
         <v>42970</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>42970</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="3">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
         <v>1.2</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="4">
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="4">
         <v>42971</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>42971</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="4">
+      <c r="K23" s="12"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="4">
         <v>42972</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>42972</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
         <v>1.3</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="15"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="4">
+        <v>42973</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>42973</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="4">
-        <v>42972</v>
+        <v>42974</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>42972</v>
-      </c>
-      <c r="F26" s="1" t="s">
+        <v>42974</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="4">
+        <v>42975</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>42975</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
         <v>1.3</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="7"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="4">
+        <v>42976</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>42976</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="4">
+        <v>42977</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="4">
+        <v>42978</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>42978</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K3:K27"/>
+    <mergeCell ref="L3:L27"/>
+    <mergeCell ref="A3:A30"/>
+    <mergeCell ref="B3:B30"/>
+    <mergeCell ref="C3:C30"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A26"/>
-    <mergeCell ref="B3:B26"/>
-    <mergeCell ref="C3:C26"/>
-    <mergeCell ref="K3:K26"/>
-    <mergeCell ref="L3:L26"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
